--- a/src/main/document/excelTest_corp2.xlsx
+++ b/src/main/document/excelTest_corp2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohui\Desktop\엑셀업로드 테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39753C44-5414-4415-AA51-E5AE7DFBD707}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D191070C-FECD-4A68-B21A-7CAF5258A59A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="696" windowWidth="17280" windowHeight="8964" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8E1223E6-BF72-441D-977A-03078155171A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>㈜둘리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이크로소프트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유소희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>111111-1111112</t>
   </si>
@@ -89,6 +69,42 @@
   </si>
   <si>
     <t>전문인력여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김둘리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이둘리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤둘리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박둘리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111-1111111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,62 +478,61 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44320</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>1111111111</v>
       </c>
       <c r="F2" s="2">
         <v>44287</v>
@@ -533,20 +548,20 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44321</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>1111111112</v>
       </c>
       <c r="F3" s="2">
         <v>44287</v>
@@ -562,20 +577,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44322</v>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>1111111113</v>
       </c>
       <c r="F4" s="2">
         <v>44287</v>
@@ -591,20 +606,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44323</v>
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>1111111114</v>
       </c>
       <c r="F5" s="2">
         <v>44287</v>
